--- a/LabVIEW/Statestik/Måling af resonansfrekvens/ballon383g(u_holder).xlsx
+++ b/LabVIEW/Statestik/Måling af resonansfrekvens/ballon383g(u_holder).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jannie\Desktop\Diagrammer\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jannie\Documents\GitHub\BachelorprojektBravo\LabVIEW\Statestik\Måling af resonansfrekvens\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,14 +14,17 @@
   <sheets>
     <sheet name="ballonikammer383gm2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Gennemsnit</t>
+  </si>
+  <si>
+    <t>StandardAv</t>
   </si>
 </sst>
 </file>
@@ -830,9 +833,6 @@
                 <c:pt idx="50">
                   <c:v>186.98500000000001</c:v>
                 </c:pt>
-                <c:pt idx="51">
-                  <c:v>186.98500000000001</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -846,11 +846,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="129293568"/>
-        <c:axId val="129295528"/>
+        <c:axId val="522771720"/>
+        <c:axId val="522773680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="129293568"/>
+        <c:axId val="522771720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -967,12 +967,12 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="129295528"/>
+        <c:crossAx val="522773680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="129295528"/>
+        <c:axId val="522773680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1091,7 +1091,7 @@
             <a:endParaRPr lang="da-DK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="129293568"/>
+        <c:crossAx val="522771720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="20"/>
@@ -1995,15 +1995,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AZ4"/>
+  <dimension ref="A1:AY5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>189.5</v>
       </c>
@@ -2157,16 +2157,22 @@
       <c r="AY1">
         <v>186.98500000000001</v>
       </c>
-      <c r="AZ1">
-        <v>186.98500000000001</v>
-      </c>
     </row>
-    <row r="4" spans="1:52" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="C4">
         <v>186.98500000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:51" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <f>STDEV(A1:AY1)</f>
+        <v>2.1635676555171557</v>
       </c>
     </row>
   </sheetData>
